--- a/source/_static/sample2-sheet.xlsx
+++ b/source/_static/sample2-sheet.xlsx
@@ -32,7 +32,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Date of Birth</t>
+    <t>Date_of_Birth</t>
   </si>
   <si>
     <t>Gender</t>
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="2"/>
